--- a/壮汉.xlsx
+++ b/壮汉.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1918,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:F11"/>
     </sheetView>
   </sheetViews>
@@ -2338,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B11:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="D11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
